--- a/Nucleo DCO接続対応表.xlsx
+++ b/Nucleo DCO接続対応表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gizmo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gizmo\Documents\Develop\Nucleo_DCO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="144">
   <si>
     <t>SW4</t>
     <phoneticPr fontId="1"/>
@@ -481,10 +481,6 @@
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2018.10.14</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -530,6 +526,78 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PB8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PB9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OLED</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SDA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I2C SCL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I2C SDA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Check</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CheckPin1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CheckPin2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Debug</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PE11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PF14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018.10.15</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -892,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -907,12 +975,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -931,30 +999,30 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -1467,7 +1535,75 @@
         <v>0</v>
       </c>
       <c r="F43" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
         <v>126</v>
+      </c>
+      <c r="C45" t="s">
+        <v>128</v>
+      </c>
+      <c r="D45" t="s">
+        <v>130</v>
+      </c>
+      <c r="E45" t="s">
+        <v>131</v>
+      </c>
+      <c r="F45" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" t="s">
+        <v>130</v>
+      </c>
+      <c r="E46" t="s">
+        <v>132</v>
+      </c>
+      <c r="F46" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" t="s">
+        <v>137</v>
+      </c>
+      <c r="E47" t="s">
+        <v>139</v>
+      </c>
+      <c r="F47" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E48" t="s">
+        <v>138</v>
+      </c>
+      <c r="F48" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Nucleo DCO接続対応表.xlsx
+++ b/Nucleo DCO接続対応表.xlsx
@@ -318,10 +318,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PSU</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PB1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -598,6 +594,10 @@
   </si>
   <si>
     <t>2018.10.15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OutBrd</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -963,7 +963,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -975,54 +975,54 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -1033,173 +1033,173 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="E18" t="s">
         <v>72</v>
@@ -1535,75 +1535,75 @@
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D45" t="s">
+        <v>129</v>
+      </c>
+      <c r="E45" t="s">
         <v>130</v>
       </c>
-      <c r="E45" t="s">
-        <v>131</v>
-      </c>
       <c r="F45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C46" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46" t="s">
         <v>129</v>
       </c>
-      <c r="D46" t="s">
-        <v>130</v>
-      </c>
       <c r="E46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E47" t="s">
+        <v>138</v>
+      </c>
+      <c r="F47" t="s">
         <v>139</v>
-      </c>
-      <c r="F47" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C48" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" t="s">
         <v>136</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>137</v>
       </c>
-      <c r="E48" t="s">
-        <v>138</v>
-      </c>
       <c r="F48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/Nucleo DCO接続対応表.xlsx
+++ b/Nucleo DCO接続対応表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23310" windowHeight="11175"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23310" windowHeight="11175"/>
   </bookViews>
   <sheets>
     <sheet name="接続対応表" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="147">
   <si>
     <t>SW4</t>
     <phoneticPr fontId="1"/>
@@ -262,10 +262,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>OSC1 Frequency Range(B)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>RE2B</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -274,10 +270,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>OSC1 Frequency Range(A)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>RE2A</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -374,14 +366,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PA0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OSC2 Amplitude</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ADC6</t>
   </si>
   <si>
@@ -420,10 +404,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>OSC1 Amplitude</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ADC3</t>
   </si>
   <si>
@@ -434,10 +414,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>OSC1 Pulse Width</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ADC2</t>
   </si>
   <si>
@@ -445,10 +421,6 @@
   </si>
   <si>
     <t>PC0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Master Frequency</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -593,11 +565,51 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2018.10.15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>OutBrd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Master Frequency</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ADC12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC1 Detune</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC1 Pulse Width</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC1 Amplitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC2 Amplitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PF4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018.11.24</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC1 Frequency Range(A)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC1 Frequency Range(B)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -639,20 +651,89 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -661,7 +742,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -678,6 +759,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -960,650 +1071,701 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" customWidth="1"/>
     <col min="3" max="3" width="3.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.25" customWidth="1"/>
+    <col min="4" max="4" width="3.625" customWidth="1"/>
+    <col min="7" max="7" width="35.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B4" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B5" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B4" s="4" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B6" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B6" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="4"/>
-      <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="13"/>
+      <c r="E14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="14"/>
+      <c r="E15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="15"/>
+      <c r="E16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" t="s">
         <v>76</v>
       </c>
-      <c r="E8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" t="s">
-        <v>76</v>
-      </c>
+      <c r="D17" s="7"/>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="12"/>
+      <c r="E18" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" t="s">
-        <v>143</v>
-      </c>
-      <c r="E18" t="s">
-        <v>72</v>
-      </c>
       <c r="F18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B19" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" t="s">
+      <c r="C19" s="1"/>
+      <c r="D19" s="10"/>
+      <c r="E19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="8"/>
+      <c r="E21" t="s">
         <v>36</v>
       </c>
-      <c r="E20" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B21" s="1" t="s">
+      <c r="F21" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" t="s">
+      <c r="G21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="6"/>
+      <c r="E22" t="s">
         <v>32</v>
       </c>
-      <c r="E21" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="1" t="s">
+      <c r="F22" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" t="s">
+      <c r="G22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="9"/>
+      <c r="E23" t="s">
         <v>32</v>
       </c>
-      <c r="E22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="1" t="s">
+      <c r="F23" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" t="s">
+      <c r="G23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="10"/>
+      <c r="E24" t="s">
         <v>36</v>
       </c>
-      <c r="E23" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="F24" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="1" t="s">
+      <c r="G24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B25" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" t="s">
+      <c r="C25" s="1"/>
+      <c r="D25" s="11"/>
+      <c r="E25" t="s">
         <v>32</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F25" t="s">
         <v>57</v>
       </c>
-      <c r="F24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="1" t="s">
+      <c r="G25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" t="s">
+      <c r="C26" s="1"/>
+      <c r="D26" s="12"/>
+      <c r="E26" t="s">
         <v>32</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F26" t="s">
         <v>54</v>
       </c>
-      <c r="F25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="1" t="s">
+      <c r="G26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" t="s">
+      <c r="C27" s="1"/>
+      <c r="D27" s="13"/>
+      <c r="E27" t="s">
         <v>32</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F27" t="s">
         <v>51</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="14"/>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="15"/>
+      <c r="E29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" t="s">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="8"/>
+      <c r="E30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="6"/>
+      <c r="E31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="9"/>
+      <c r="E32" t="s">
         <v>36</v>
       </c>
-      <c r="E27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" t="s">
+      <c r="F32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" t="s">
         <v>32</v>
       </c>
-      <c r="E28" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" t="s">
-        <v>39</v>
-      </c>
-      <c r="F30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="F33" t="s">
         <v>31</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" t="s">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" t="s">
         <v>22</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F35" t="s">
         <v>28</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B35" t="s">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" t="s">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s">
         <v>22</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F36" t="s">
         <v>25</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B36" t="s">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" t="s">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" t="s">
         <v>22</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F37" t="s">
         <v>21</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G37" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B37" s="1" t="s">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B38" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="D37" t="s">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" t="s">
         <v>15</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F38" t="s">
         <v>18</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G38" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B38" s="1" t="s">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B39" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="D38" t="s">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" t="s">
         <v>15</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F39" t="s">
         <v>14</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G39" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B40" s="1" t="s">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B41" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="1"/>
-      <c r="D40" t="s">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" t="s">
         <v>5</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G41" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B41" s="1" t="s">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B42" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" t="s">
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" t="s">
         <v>5</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F42" t="s">
         <v>8</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G42" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B42" s="1" t="s">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B43" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="D42" t="s">
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" t="s">
         <v>5</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F43" t="s">
         <v>4</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G43" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B43" s="1" t="s">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B44" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="D43" t="s">
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" t="s">
         <v>1</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F44" t="s">
         <v>0</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G44" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" t="s">
+        <v>120</v>
+      </c>
+      <c r="E46" t="s">
+        <v>122</v>
+      </c>
+      <c r="F46" t="s">
+        <v>123</v>
+      </c>
+      <c r="G46" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" t="s">
+        <v>121</v>
+      </c>
+      <c r="E47" t="s">
+        <v>122</v>
+      </c>
+      <c r="F47" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B45" t="s">
-        <v>125</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="G47" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" t="s">
         <v>127</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E48" t="s">
         <v>129</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F48" t="s">
+        <v>131</v>
+      </c>
+      <c r="G48" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" t="s">
+        <v>128</v>
+      </c>
+      <c r="E49" t="s">
+        <v>129</v>
+      </c>
+      <c r="F49" t="s">
         <v>130</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G49" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B46" t="s">
-        <v>126</v>
-      </c>
-      <c r="C46" t="s">
-        <v>128</v>
-      </c>
-      <c r="D46" t="s">
-        <v>129</v>
-      </c>
-      <c r="E46" t="s">
-        <v>131</v>
-      </c>
-      <c r="F46" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B47" t="s">
-        <v>140</v>
-      </c>
-      <c r="C47" t="s">
-        <v>134</v>
-      </c>
-      <c r="D47" t="s">
-        <v>136</v>
-      </c>
-      <c r="E47" t="s">
-        <v>138</v>
-      </c>
-      <c r="F47" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B48" t="s">
-        <v>141</v>
-      </c>
-      <c r="C48" t="s">
-        <v>135</v>
-      </c>
-      <c r="D48" t="s">
-        <v>136</v>
-      </c>
-      <c r="E48" t="s">
-        <v>137</v>
-      </c>
-      <c r="F48" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/Nucleo DCO接続対応表.xlsx
+++ b/Nucleo DCO接続対応表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23310" windowHeight="11175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23310" windowHeight="11175"/>
   </bookViews>
   <sheets>
     <sheet name="接続対応表" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="150">
   <si>
     <t>SW4</t>
     <phoneticPr fontId="1"/>
@@ -601,15 +601,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2018.11.24</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>OSC1 Frequency Range(A)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>OSC1 Frequency Range(B)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018.11.27</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1074,7 +1086,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1092,7 +1104,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -1127,6 +1139,9 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
         <v>111</v>
+      </c>
+      <c r="D6" t="s">
+        <v>149</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>114</v>
@@ -1361,7 +1376,7 @@
         <v>67</v>
       </c>
       <c r="G21" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.15">
@@ -1377,7 +1392,7 @@
         <v>64</v>
       </c>
       <c r="G22" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.15">
@@ -1393,7 +1408,7 @@
         <v>61</v>
       </c>
       <c r="G23" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
@@ -1409,7 +1424,7 @@
         <v>59</v>
       </c>
       <c r="G24" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
@@ -1425,7 +1440,7 @@
         <v>57</v>
       </c>
       <c r="G25" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.15">
@@ -1441,7 +1456,7 @@
         <v>54</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.15">
@@ -1457,7 +1472,7 @@
         <v>51</v>
       </c>
       <c r="G27" t="s">
-        <v>145</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.15">
@@ -1473,7 +1488,7 @@
         <v>48</v>
       </c>
       <c r="G28" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
@@ -1489,7 +1504,7 @@
         <v>45</v>
       </c>
       <c r="G29" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
@@ -1505,7 +1520,7 @@
         <v>42</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.15">
@@ -1521,7 +1536,7 @@
         <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.15">
@@ -1537,7 +1552,7 @@
         <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
@@ -1561,7 +1576,7 @@
         <v>29</v>
       </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="D35" s="12"/>
       <c r="E35" t="s">
         <v>22</v>
       </c>
@@ -1577,7 +1592,7 @@
         <v>26</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="D36" s="13"/>
       <c r="E36" t="s">
         <v>22</v>
       </c>
@@ -1593,7 +1608,7 @@
         <v>23</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="D37" s="14"/>
       <c r="E37" t="s">
         <v>22</v>
       </c>
@@ -1609,7 +1624,7 @@
         <v>19</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="D38" s="15"/>
       <c r="E38" t="s">
         <v>15</v>
       </c>
@@ -1625,7 +1640,9 @@
         <v>16</v>
       </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="E39" t="s">
         <v>15</v>
       </c>
@@ -1641,7 +1658,7 @@
         <v>12</v>
       </c>
       <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="D41" s="6"/>
       <c r="E41" t="s">
         <v>5</v>
       </c>
@@ -1657,7 +1674,7 @@
         <v>9</v>
       </c>
       <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="D42" s="9"/>
       <c r="E42" t="s">
         <v>5</v>
       </c>
@@ -1673,7 +1690,7 @@
         <v>6</v>
       </c>
       <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="D43" s="10"/>
       <c r="E43" t="s">
         <v>5</v>
       </c>
@@ -1689,7 +1706,7 @@
         <v>2</v>
       </c>
       <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="D44" s="11"/>
       <c r="E44" t="s">
         <v>1</v>
       </c>
@@ -1707,6 +1724,7 @@
       <c r="C46" t="s">
         <v>120</v>
       </c>
+      <c r="D46" s="10"/>
       <c r="E46" t="s">
         <v>122</v>
       </c>
@@ -1724,6 +1742,7 @@
       <c r="C47" t="s">
         <v>121</v>
       </c>
+      <c r="D47" s="9"/>
       <c r="E47" t="s">
         <v>122</v>
       </c>
@@ -1741,6 +1760,9 @@
       <c r="C48" t="s">
         <v>127</v>
       </c>
+      <c r="D48" t="s">
+        <v>147</v>
+      </c>
       <c r="E48" t="s">
         <v>129</v>
       </c>
@@ -1757,6 +1779,9 @@
       </c>
       <c r="C49" t="s">
         <v>128</v>
+      </c>
+      <c r="D49" t="s">
+        <v>148</v>
       </c>
       <c r="E49" t="s">
         <v>129</v>
